--- a/output.xlsx
+++ b/output.xlsx
@@ -424,17 +424,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2023-06-14 10:14:40</t>
+          <t>2023-06-15</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Шенин Кирилл Александрович</t>
+          <t>Снегирев Святослав Игоревич</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Toyota Белый 2015</t>
+          <t>Audi Фиолетовый 2016</t>
         </is>
       </c>
       <c r="D1" t="inlineStr"/>
@@ -537,17 +537,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-06-14 10:23:51</t>
+          <t>2023-07-20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Петрова Анна Петровна</t>
+          <t>Снегирев Святослав Игоревич</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Toyota Белый 2015</t>
+          <t>Audi Фиолетовый 2016</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -650,17 +650,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-06-14 12:01:13</t>
+          <t>2023-06-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Кузнецов Дмитрий Андреевич</t>
+          <t>Петров Петр Петрович</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Toyota Белый 2015</t>
+          <t>Mazda Красный 2012</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -763,17 +763,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-06-01 15:46:07</t>
+          <t>2023-07-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Шенин Кирилл Александрович</t>
+          <t>Петров Петр Петрович</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Honda Черный 2014</t>
+          <t>Audi Фиолетовый 2016</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -874,9 +874,21 @@
       <c r="CU4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-06-17</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Сидоров Алексей Владимирович</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Бежевый 2018</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -975,9 +987,21 @@
       <c r="CU5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Сидоров Алексей Владимирович</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Audi Фиолетовый 2016</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -1076,9 +1100,21 @@
       <c r="CU6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-06-15</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Кузнецова Ольга Андреевна</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Volkswagen Синий 2016</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -1177,9 +1213,21 @@
       <c r="CU7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-06-16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Николаев Николай Николаевич</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Toyota Белый 2015</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -1278,9 +1326,21 @@
       <c r="CU8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-06-17</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Смирнова Екатерина Александровна</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Nissan Серебристый 2013</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -1379,9 +1439,21 @@
       <c r="CU9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-06-15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Игнатов Артем Игоревич</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Honda Черный 2014</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -1480,9 +1552,21 @@
       <c r="CU10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-06-16</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Козлов Дмитрий Владимирович</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Lexus Желтый 2019</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -1581,9 +1665,21 @@
       <c r="CU11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-06-17</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Макарова Наталья Сергеевна</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Skoda Коричневый 2013</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -1682,9 +1778,21 @@
       <c r="CU12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-06-15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Павлов Александр Иванович</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>BMW Зеленый 2017</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1783,9 +1891,21 @@
       <c r="CU13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-06-18</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Павлов Александр Иванович</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Seat Красный 2013</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -1884,9 +2004,21 @@
       <c r="CU14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-06-19</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Иванов Денис Андреевич</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Skoda Синий 2015</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -1985,9 +2117,21 @@
       <c r="CU15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-06-20</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Арутюнян Алексей Сергеевич</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Opel Серый 2015</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -2086,9 +2230,21 @@
       <c r="CU16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Арутюнян Алексей Сергеевич</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>BMW Черный 2015</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -2187,9 +2343,21 @@
       <c r="CU17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Шидловсикй Андрей Владимирович</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fiat Серебристый 2014</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -2288,9 +2456,21 @@
       <c r="CU18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Савельева Елена Алексеевна</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Citroen Белый 2012</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -2389,9 +2569,21 @@
       <c r="CU19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-06-23</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Смирнов Максим Николаевич</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Peugeot Черный 2013</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -2490,9 +2682,21 @@
       <c r="CU20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-06-24</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Васильев Артем Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Renault Серый 2016</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -2591,9 +2795,21 @@
       <c r="CU21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-06-25</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Морозов Илья Евгеньевич</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Subaru Красный 2013</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -2692,9 +2908,21 @@
       <c r="CU22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-06-26</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Новикова Алена Петровна</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mazda Синий 2015</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -2793,9 +3021,21 @@
       <c r="CU23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Соколов Артем Александрович</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Kia Коричневый 2015</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -2894,9 +3134,21 @@
       <c r="CU24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Баранов Даниил Михайлович</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Hyundai Серебристый 2014</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -2995,9 +3247,21 @@
       <c r="CU25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Павлова Анна Игоревна</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Honda Белый 2012</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -3096,9 +3360,21 @@
       <c r="CU26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Васильева Екатерина Олеговна</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Nissan Черный 2016</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -3197,9 +3473,21 @@
       <c r="CU27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Игнатьева Мария Александровна</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chevrolet Серый 2013</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -3298,9 +3586,21 @@
       <c r="CU28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-07-02</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Соколова Дарья Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ford Красный 2015</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -3399,9 +3699,21 @@
       <c r="CU29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Кузнецов Александр Иванович</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Volkswagen Синий 2014</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -3500,9 +3812,21 @@
       <c r="CU30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Петрова Ольга Сергеевна</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Toyota Белый 2014</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -3601,9 +3925,21 @@
       <c r="CU31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-07-05</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Иванова Анастасия Александровна</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Серебристый 2017</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -3702,9 +4038,21 @@
       <c r="CU32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Иванова Анастасия Александровна</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Audi Фиолетовый 2016</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -3803,9 +4151,21 @@
       <c r="CU33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-07-16</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Иванова Анастасия Александровна</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Audi Фиолетовый 2016</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -3904,9 +4264,21 @@
       <c r="CU34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Иванова Анастасия Александровна</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Lexus Желтый 2019</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -4005,9 +4377,21 @@
       <c r="CU35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-07-24</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Иванова Анастасия Александровна</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BMW Черный 2015</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
@@ -4106,9 +4490,21 @@
       <c r="CU36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Сидорова Елизавета Максимовна</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BMW Черный 2015</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -4207,9 +4603,21 @@
       <c r="CU37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-07-09</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Сидорова Елизавета Максимовна</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BMW Черный 2015</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
@@ -4308,9 +4716,21 @@
       <c r="CU38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-07-14</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Сидорова Елизавета Максимовна</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Lexus Желтый 2019</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
@@ -4409,9 +4829,21 @@
       <c r="CU39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-07-21</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Сидорова Елизавета Максимовна</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Серебристый 2017</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
@@ -4510,9 +4942,21 @@
       <c r="CU40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-07-26</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Сидорова Елизавета Максимовна</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Серебристый 2017</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
@@ -4611,9 +5055,21 @@
       <c r="CU41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Котова Елизавета Максимовна</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Audi Фиолетовый 2016</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -4712,9 +5168,21 @@
       <c r="CU42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Котова Елизавета Максимовна</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Audi Фиолетовый 2016</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -4813,9 +5281,21 @@
       <c r="CU43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Котова Елизавета Максимовна</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Audi Фиолетовый 2016</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
@@ -4914,9 +5394,21 @@
       <c r="CU44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-07-17</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Котова Елизавета Максимовна</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Audi Фиолетовый 2016</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
@@ -5015,9 +5507,21 @@
       <c r="CU45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Котова Елизавета Максимовна</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Lexus Желтый 2019</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
@@ -5116,9 +5620,21 @@
       <c r="CU46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-07-08</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Новиков Максим Петрович</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Серебристый 2017</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
@@ -5217,9 +5733,21 @@
       <c r="CU47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-07-10</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Новиков Максим Петрович</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Lexus Желтый 2019</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
@@ -5318,9 +5846,21 @@
       <c r="CU48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-07-13</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Новиков Максим Петрович</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BMW Черный 2015</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
@@ -5419,9 +5959,21 @@
       <c r="CU49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-07-15</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Новиков Максим Петрович</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Серебристый 2017</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -422,21 +422,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>2023-06-15</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Снегирев Святослав Игоревич</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Audi Фиолетовый 2016</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
@@ -535,21 +523,9 @@
       <c r="CU1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-07-20</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Снегирев Святослав Игоревич</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Audi Фиолетовый 2016</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -648,21 +624,9 @@
       <c r="CU2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-06-16</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Петров Петр Петрович</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mazda Красный 2012</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -761,21 +725,9 @@
       <c r="CU3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-07-23</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Петров Петр Петрович</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Audi Фиолетовый 2016</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -874,21 +826,9 @@
       <c r="CU4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-06-17</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Сидоров Алексей Владимирович</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Mercedes-Benz Бежевый 2018</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -987,21 +927,9 @@
       <c r="CU5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-07-25</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Сидоров Алексей Владимирович</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Audi Фиолетовый 2016</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -1100,21 +1028,9 @@
       <c r="CU6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023-06-15</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Кузнецова Ольга Андреевна</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Volkswagen Синий 2016</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -1213,21 +1129,9 @@
       <c r="CU7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023-06-16</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Николаев Николай Николаевич</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Toyota Белый 2015</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -1326,21 +1230,9 @@
       <c r="CU8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-06-17</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Смирнова Екатерина Александровна</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Nissan Серебристый 2013</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -1439,21 +1331,9 @@
       <c r="CU9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2023-06-15</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Игнатов Артем Игоревич</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Honda Черный 2014</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -1552,21 +1432,9 @@
       <c r="CU10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2023-06-16</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Козлов Дмитрий Владимирович</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Lexus Желтый 2019</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -1665,21 +1533,9 @@
       <c r="CU11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2023-06-17</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Макарова Наталья Сергеевна</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Skoda Коричневый 2013</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -1778,21 +1634,9 @@
       <c r="CU12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2023-06-15</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Павлов Александр Иванович</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>BMW Зеленый 2017</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1891,21 +1735,9 @@
       <c r="CU13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2023-06-18</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Павлов Александр Иванович</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Seat Красный 2013</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -2004,21 +1836,9 @@
       <c r="CU14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2023-06-19</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Иванов Денис Андреевич</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Skoda Синий 2015</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -2117,21 +1937,9 @@
       <c r="CU15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2023-06-20</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Арутюнян Алексей Сергеевич</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Opel Серый 2015</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -2230,21 +2038,9 @@
       <c r="CU16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2023-07-18</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Арутюнян Алексей Сергеевич</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>BMW Черный 2015</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -2343,21 +2139,9 @@
       <c r="CU17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2023-06-21</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Шидловсикй Андрей Владимирович</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Fiat Серебристый 2014</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -2456,21 +2240,9 @@
       <c r="CU18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2023-06-22</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Савельева Елена Алексеевна</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Citroen Белый 2012</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -2569,21 +2341,9 @@
       <c r="CU19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2023-06-23</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Смирнов Максим Николаевич</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Peugeot Черный 2013</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -2682,21 +2442,9 @@
       <c r="CU20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2023-06-24</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Васильев Артем Дмитриевич</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Renault Серый 2016</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -2795,21 +2543,9 @@
       <c r="CU21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2023-06-25</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Морозов Илья Евгеньевич</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Subaru Красный 2013</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -2908,21 +2644,9 @@
       <c r="CU22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2023-06-26</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Новикова Алена Петровна</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Mazda Синий 2015</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -3021,21 +2745,9 @@
       <c r="CU23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2023-06-27</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Соколов Артем Александрович</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Kia Коричневый 2015</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -3134,21 +2846,9 @@
       <c r="CU24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2023-06-28</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Баранов Даниил Михайлович</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Hyundai Серебристый 2014</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -3247,21 +2947,9 @@
       <c r="CU25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2023-06-29</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Павлова Анна Игоревна</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Honda Белый 2012</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -3360,21 +3048,9 @@
       <c r="CU26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2023-06-30</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Васильева Екатерина Олеговна</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Nissan Черный 2016</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -3473,21 +3149,9 @@
       <c r="CU27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2023-07-01</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Игнатьева Мария Александровна</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Chevrolet Серый 2013</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -3586,21 +3250,9 @@
       <c r="CU28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2023-07-02</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Соколова Дарья Дмитриевна</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Ford Красный 2015</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -3699,21 +3351,9 @@
       <c r="CU29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Кузнецов Александр Иванович</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Volkswagen Синий 2014</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -3812,21 +3452,9 @@
       <c r="CU30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2023-07-04</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Петрова Ольга Сергеевна</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Toyota Белый 2014</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -3925,21 +3553,9 @@
       <c r="CU31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2023-07-05</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Иванова Анастасия Александровна</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Mercedes-Benz Серебристый 2017</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -4038,21 +3654,9 @@
       <c r="CU32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2023-07-11</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Иванова Анастасия Александровна</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Audi Фиолетовый 2016</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -4151,21 +3755,9 @@
       <c r="CU33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2023-07-16</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Иванова Анастасия Александровна</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Audi Фиолетовый 2016</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -4264,21 +3856,9 @@
       <c r="CU34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2023-07-19</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Иванова Анастасия Александровна</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Lexus Желтый 2019</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -4377,21 +3957,9 @@
       <c r="CU35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2023-07-24</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Иванова Анастасия Александровна</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>BMW Черный 2015</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
@@ -4490,21 +4058,9 @@
       <c r="CU36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2023-07-06</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Сидорова Елизавета Максимовна</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>BMW Черный 2015</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -4603,21 +4159,9 @@
       <c r="CU37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2023-07-09</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Сидорова Елизавета Максимовна</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>BMW Черный 2015</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
@@ -4716,21 +4260,9 @@
       <c r="CU38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2023-07-14</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Сидорова Елизавета Максимовна</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Lexus Желтый 2019</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
@@ -4829,21 +4361,9 @@
       <c r="CU39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2023-07-21</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Сидорова Елизавета Максимовна</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Mercedes-Benz Серебристый 2017</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
@@ -4942,21 +4462,9 @@
       <c r="CU40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2023-07-26</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Сидорова Елизавета Максимовна</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Mercedes-Benz Серебристый 2017</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
@@ -5055,21 +4563,9 @@
       <c r="CU41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2023-07-07</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Котова Елизавета Максимовна</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Audi Фиолетовый 2016</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -5168,21 +4664,9 @@
       <c r="CU42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2023-07-07</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Котова Елизавета Максимовна</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Audi Фиолетовый 2016</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -5281,21 +4765,9 @@
       <c r="CU43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2023-07-12</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Котова Елизавета Максимовна</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Audi Фиолетовый 2016</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
@@ -5394,21 +4866,9 @@
       <c r="CU44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2023-07-17</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Котова Елизавета Максимовна</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Audi Фиолетовый 2016</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
@@ -5507,21 +4967,9 @@
       <c r="CU45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2023-07-22</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Котова Елизавета Максимовна</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Lexus Желтый 2019</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
@@ -5620,21 +5068,9 @@
       <c r="CU46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2023-07-08</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Новиков Максим Петрович</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Mercedes-Benz Серебристый 2017</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
@@ -5733,21 +5169,9 @@
       <c r="CU47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2023-07-10</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Новиков Максим Петрович</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Lexus Желтый 2019</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
@@ -5846,21 +5270,9 @@
       <c r="CU48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2023-07-13</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Новиков Максим Петрович</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>BMW Черный 2015</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
@@ -5959,21 +5371,9 @@
       <c r="CU49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2023-07-15</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Новиков Максим Петрович</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Mercedes-Benz Серебристый 2017</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
